--- a/file_exp/exp_results.xlsx
+++ b/file_exp/exp_results.xlsx
@@ -479,7 +479,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8870614035087719</v>
+        <v>0.8804824561403508</v>
       </c>
     </row>
     <row r="3">
@@ -495,13 +495,13 @@
         <v>191</v>
       </c>
       <c r="D3" t="n">
-        <v>0.95</v>
+        <v>0.9508196721311475</v>
       </c>
       <c r="E3" t="n">
-        <v>0.890625</v>
+        <v>0.8992248062015504</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9317910090865614</v>
+        <v>0.9269488283118125</v>
       </c>
     </row>
     <row r="4">
@@ -523,7 +523,7 @@
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0.9999999999999999</v>
       </c>
     </row>
   </sheetData>
